--- a/data/parameters.xlsx
+++ b/data/parameters.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578A0D2-2B9A-4D56-857F-7B9A714D1EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E633CF5-5E69-466C-82A5-611572F30949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1305" windowWidth="18810" windowHeight="11865" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="-26640" yWindow="6315" windowWidth="22305" windowHeight="14370" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Servers" sheetId="6" r:id="rId1"/>
+    <sheet name="Filter" sheetId="6" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
     <sheet name="Views" sheetId="7" r:id="rId3"/>
     <sheet name="TargetServer" sheetId="4" r:id="rId4"/>
@@ -151,10 +151,10 @@
     <t>`# Cores` &gt; 10</t>
   </si>
   <si>
-    <t>`Hardware Abstraction` != "VMGuest" &amp; `Server Model` != "VMWARE VIRTUAL PLATFORM"</t>
-  </si>
-  <si>
-    <t>Pyhsical Servers Filter</t>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>`Server Model` != "VMWARE VIRTUAL PLATFORM" &amp; (`Environment` == "Production" | `Environment_ESX_Dup` == "Production")</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA68A-59C8-408A-879C-C4D7751410DF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +531,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210B665-094C-497D-8BB8-FBFB60F28EDE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
